--- a/Data/Transitions/19591961Translation.xlsx
+++ b/Data/Transitions/19591961Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="579">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1697,9 +1697,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3764,7 +3761,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>561</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3775,7 +3772,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4358,7 +4355,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4501,7 +4498,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>561</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4875,7 +4872,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5029,7 +5026,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5348,7 +5345,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5513,7 +5510,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5568,7 +5565,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5579,7 +5576,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5744,7 +5741,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5953,7 +5950,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -5975,7 +5972,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -5986,7 +5983,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6712,7 +6709,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7152,7 +7149,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7493,7 +7490,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7955,7 +7952,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -7977,7 +7974,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8032,7 +8029,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="539" spans="1:3">
